--- a/biology/Botanique/Eopleurozia/Eopleurozia.xlsx
+++ b/biology/Botanique/Eopleurozia/Eopleurozia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleurozia est un genre de plantes de la famille des Pleuroziaceae.
 synonymes : 
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (9 septembre 2020)[2] , Catalogue of Life                                   (9 septembre 2020)[3] et ITIS      (9 septembre 2020)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (9 septembre 2020) , Catalogue of Life                                   (9 septembre 2020) et ITIS      (9 septembre 2020) :
 Pleurozia acinosa (Mitt.) Trevis.
 Pleurozia articulata (Lindb.) Lindb. &amp; Lackström
 Pleurozia caledonica (Gottsche) Steph.
@@ -529,7 +543,7 @@
 Pleurozia pocsii Frank Müll.
 Pleurozia purpurea Lindb.
 Pleurozia subinflata (Austin) Austin
-Selon The Plant List            (9 septembre 2020)[5] :
+Selon The Plant List            (9 septembre 2020) :
 Pleurozia acinosa (Mitt.) Trevis.
 Pleurozia arcuata Horik.
 Pleurozia articulata (Lindb.) Lindb. &amp; Lackström
@@ -541,7 +555,7 @@
 Pleurozia paradoxa Schiffner
 Pleurozia purpurea Lindb.
 Pleurozia subinflata (Austin) Austin
-Selon Tropicos                                           (9 septembre 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Pleurozia acinosa (Mitt.) Trevis.
 Pleurozia arcuata Horik.
 Pleurozia articulata (Lindb.) Lindb. &amp; Lackström
@@ -593,7 +607,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dumortier B.C. (1835). "Recueil d'observations sur les Jungermanniacées". fascicle 1: 1–27. Tournay.</t>
         </is>
